--- a/data/守備成績.xlsx
+++ b/data/守備成績.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Cpbl-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2E104C-7859-4BCC-91C4-F4858CA3BEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8202060-9FBE-403E-B7FE-4085FB77BCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="統一7-Eleven獅" sheetId="1" r:id="rId1"/>
+    <sheet name="統一7-ELEVEn獅" sheetId="1" r:id="rId1"/>
     <sheet name="樂天桃猿" sheetId="2" r:id="rId2"/>
     <sheet name="中信兄弟" sheetId="3" r:id="rId3"/>
     <sheet name="富邦悍將" sheetId="4" r:id="rId4"/>
@@ -383,13 +383,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -447,7 +447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -505,7 +505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -563,7 +563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -592,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -621,7 +621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -650,7 +650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -694,9 +694,9 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -783,7 +783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -812,32 +812,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -856,9 +856,9 @@
       <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -916,7 +916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -945,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -1163,9 +1163,9 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -1368,17 +1368,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -1393,13 +1393,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667B7B55-10B5-4485-A624-8609A58C225E}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1486,37 +1486,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -1535,9 +1535,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1566,47 +1566,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
